--- a/resources/meetResultsGirls2025.xlsx
+++ b/resources/meetResultsGirls2025.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="light-up-the-nightGirlsJV" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fightertown-xc-invitationalGirlsJV" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fightertown-xc-invitationalGirlsVarsity" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bcc-round-up-new-bern-all-teamsGirlsVarsity" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,6 +587,36 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>18:18.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bcc-round-up-new-bern-all-teamsGirlsVarsity</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>bcc-round-up-new-bern-all-teams</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Varsity</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>18:35.00</t>
         </is>
       </c>
     </row>
@@ -5019,30 +5050,2935 @@
           <t>1</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Reagan Clifton</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Croatan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>18:13.68</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1093.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Emma Sanders</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Swansboro</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>19:38.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1178.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ella Richardson</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Croatan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>20:04.31</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1204.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Candrice Davis</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Rocky Mount High School</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>20:36.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1236.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Madilyn Lemke</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Swansboro</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20:39.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1239.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sarah Fedyna</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Havelock</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>20:41.24</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1241.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Madison Perry</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lejeune</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>22:04.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1324.22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mia Ramirez Padilla</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Swansboro</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>22:07.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1327.53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Joli Rossi</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Croatan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>22:09.44</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1329.44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Leah Windsor</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>22:13.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1333.45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Blake Leigh Brickhouse</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>22:15.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1335.29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Elise Rose</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>22:17.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1337.22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Annabella Drake</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>22:18.39</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1338.39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Maddy Chung</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>22:20.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1340.98</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Marina Lewis</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Havelock</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>22:25.06</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1345.06</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Xyanna Valentin</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Lejeune</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>22:27.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1347.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Robbie Brownd</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Swansboro</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>22:53.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1373.6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Samantha Andreu</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>22:58.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1378.77</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Jacky Esquivel</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>23:05.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1385.93</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Gillam Parker</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>23:12.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1392.56</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Hannah Allison</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>23:13.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1393.73</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Madelynn Steele</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>23:24.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1404.85</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Alexis Soriano</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Lejeune</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>23:25.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1405.28</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Lillie Hemby</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>23:49.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1429.95</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Lucy Sherill</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>23:57.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1437.9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Chloe Lewis</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>24:04.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1444.06</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Kennedy Turrentine</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Rocky Mount High School</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>24:08.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1448.59</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Jade Lanclos</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Living Water Christian School</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>24:11.50</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1451.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Cailyn Thomas</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Living Water Christian School</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>24:21.13</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1461.13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Stevie Cressionie</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Wilson Christian Academy</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>24:32.14</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1472.14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Isabel Howard</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>24:36.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1476.8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Jessica Pichardo-Madrid</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>24:51.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1491.01</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Keysha Mizzell</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Rocky Mount High School</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>24:51.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1491.88</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Chloe Dean</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>24:54.21</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1494.21</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Sophia Gough</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>25:11.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1511.71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Brooke Wilson</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>East Carteret</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>25:14.98</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1514.98</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ava Spreder</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>25:16.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1516.4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Arize Martin</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>25:17.08</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1517.08</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Penelope Lewis</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Havelock</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>25:21.71</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1521.71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Joanna Gwinn</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Lejeune</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>25:22.06</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1522.06</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Adilene Cruz Lopez</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>25:23.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1523.2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Valeria Ramos Gutierrez</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>25:28.56</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1528.56</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ana Cruz</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>25:29.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1529.37</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Elena McCormick</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>25:33.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1533.72</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Jada Lanclos</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Living Water Christian School</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>25:35.49</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1535.49</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Emma-Kay Willis</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Lejeune</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>25:36.92</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1536.92</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Julia Dyga</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>25:37.28</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1537.28</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Victoria  Salas</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Unattached</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>25:40.60</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1540.6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Alaina Vee</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Swansboro</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>25:45.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1545.4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ruby  Rohrman</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>25:47.51</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1547.51</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Emma Spinner</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Terra Ceia Christian School</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>25:52.22</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1552.22</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Evelyn Garcia</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>25:54.53</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1554.53</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Madelyn Barnes</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Havelock</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>25:57.89</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1557.89</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Lily Dettle</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Croatan</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>25:58.21</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1558.21</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Kylie Petty</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Wilson Christian Academy</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>26:00.19</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1560.19</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Leslie Cruz Lopez</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>26:07.65</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1567.65</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Addison Gercon</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>26:13.29</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1573.29</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Marleigh Patton</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>26:19.72</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1579.72</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Alexa Haro</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>26:21.15</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1581.15</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Isabelle Hare</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Onslow Early College High School</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>26:51.22</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1611.22</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Jane Gwinn</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Lejeune</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>26:57.14</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1617.14</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Alivia Brown</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Richlands</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>26:57.98</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1617.98</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Esther Hagedorn</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Onslow Early College High School</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>27:05.87</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1625.87</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Sage Jones</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>27:16.91</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1636.91</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Sutton Norris</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>27:26.77</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1646.77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Emma Smith</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>27:30.17</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1650.17</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Coralene Ellis</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>27:31.68</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1651.68</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Carley O'Brien</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>27:36.61</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1656.61</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Tania Ordaz Martinez</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>27:57.66</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1677.66</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Sanai Silver</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Rocky Mount High School</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>28:24.27</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1704.27</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Charlie Kate Barnett</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Wilson Christian Academy</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>28:38.73</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1718.73</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Aubrey Bell</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>29:00.91</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1740.91</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Lizeth Cruz Martinez</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>29:12.82</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1752.82</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Elizabeth Weibling</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Lejeune</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>29:13.82</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1753.82</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Valerie Valdivia</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>29:20.06</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1760.06</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Louise Medeiros</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>30:02.66</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1802.66</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Kaitlyn Mizelle</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>30:03.91</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1803.91</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Kamaya Hand</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Rocky Mount High School</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>30:16.51</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1816.51</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Avery Ross</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Richlands</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>30:20.02</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1820.02</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Haley Angel</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>30:22.44</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1822.44</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Kadence Thigpen</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>30:25.90</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1825.9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Annie Delamar</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>30:47.19</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1847.19</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Aspyn Nunley</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>32:59.52</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1979.52</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Nylah Roberts</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Rocky Mount High School</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>35:31.57</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2131.57</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Kara Harper</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>37:00.29</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2220.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Athlete</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Reagan Clifton</t>
+          <t>Ella Barrow</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Croatan</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>18:13.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>19:51.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>1093.68</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="3">
@@ -5054,31 +7990,31 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Emma Sanders</t>
+          <t>Mary M Henslee</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Swansboro</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>19:38.97</t>
+          <t>20:51.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1178.97</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="4">
@@ -5090,27 +8026,31 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ella Richardson</t>
+          <t>Isabel Maxwell</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Croatan</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>20:04.31</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>21:03.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H4" t="n">
-        <v>1204.31</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="5">
@@ -5122,7 +8062,7 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Candrice Davis</t>
+          <t>Samantha Andreu</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5132,21 +8072,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Rocky Mount High School</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>20:36.15</t>
+          <t>21:08.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1236.15</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="6">
@@ -5158,31 +8098,31 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Madilyn Lemke</t>
+          <t>Maddy Chung</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Swansboro</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>20:39.20</t>
+          <t>21:56.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1239.2</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="7">
@@ -5194,27 +8134,31 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sarah Fedyna</t>
+          <t>Maria Wright</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Havelock</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>20:41.24</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>22:06.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="H7" t="n">
-        <v>1241.24</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="8">
@@ -5226,31 +8170,31 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Madison Perry</t>
+          <t>Annabella Drake</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lejeune</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>22:04.22</t>
+          <t>22:23.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1324.22</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="9">
@@ -5262,7 +8206,7 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mia Ramirez Padilla</t>
+          <t>Julianne Stenfield</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -5272,21 +8216,21 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Swansboro</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>22:07.53</t>
+          <t>22:25.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1327.53</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="10">
@@ -5298,27 +8242,31 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Joli Rossi</t>
+          <t>Madelynn Steele</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Croatan</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>22:09.44</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>22:29.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="H10" t="n">
-        <v>1329.44</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="11">
@@ -5330,31 +8278,31 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Leah Windsor</t>
+          <t>Chloe Lewis</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>West Carteret</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>22:13.45</t>
+          <t>22:36.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1333.45</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="12">
@@ -5366,31 +8314,31 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Blake Leigh Brickhouse</t>
+          <t>Lucy Sherill</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>West Carteret</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>22:15.29</t>
+          <t>22:54.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1335.29</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="13">
@@ -5402,31 +8350,31 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Elise Rose</t>
+          <t>Hannah Allison</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>West Carteret</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>22:17.22</t>
+          <t>23:07.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1337.22</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="14">
@@ -5438,12 +8386,12 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Annabella Drake</t>
+          <t>Emma Radcliffe</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -5453,12 +8401,16 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>22:18.39</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>23:19.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
       <c r="H14" t="n">
-        <v>1338.39</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="15">
@@ -5470,12 +8422,12 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Maddy Chung</t>
+          <t>Ava Spreder</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -5485,16 +8437,16 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>22:20.98</t>
+          <t>23:40.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1340.98</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="16">
@@ -5506,27 +8458,31 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Marina Lewis</t>
+          <t>Jacky Esquivel</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Havelock</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>22:25.06</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>23:41.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="H16" t="n">
-        <v>1345.06</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="17">
@@ -5538,31 +8494,31 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Xyanna Valentin</t>
+          <t>Brianne Sanchez</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lejeune</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>22:27.80</t>
+          <t>23:45.00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1347.8</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="18">
@@ -5574,7 +8530,7 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Robbie Brownd</t>
+          <t>Arize Martin</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -5584,21 +8540,21 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Swansboro</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>22:53.60</t>
+          <t>23:47.00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1373.6</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="19">
@@ -5610,12 +8566,12 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Samantha Andreu</t>
+          <t>Julia Dyga</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -5625,16 +8581,16 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>22:58.77</t>
+          <t>23:50.00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1378.77</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="20">
@@ -5646,31 +8602,31 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Jacky Esquivel</t>
+          <t>Chloe Dean</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>White Oak</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>23:05.93</t>
+          <t>24:07.00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1385.93</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="21">
@@ -5682,31 +8638,27 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Gillam Parker</t>
+          <t>Elena McCormick</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>West Carteret</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>23:12.56</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>24:12.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>1392.56</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="22">
@@ -5718,7 +8670,7 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Hannah Allison</t>
+          <t>Esah Innerarity</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -5728,21 +8680,21 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>White Oak</t>
+          <t>New Bern</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>23:13.73</t>
+          <t>24:23.00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1393.73</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="23">
@@ -5754,31 +8706,31 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Madelynn Steele</t>
+          <t>Ema Garcia</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>D.H. Conley</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>23:24.85</t>
+          <t>24:43.00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1404.85</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="24">
@@ -5790,7 +8742,7 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Alexis Soriano</t>
+          <t>Savannah Bryan</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -5800,21 +8752,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Lejeune</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>23:25.28</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
+          <t>24:58.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>1405.28</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="25">
@@ -5826,31 +8774,31 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Lillie Hemby</t>
+          <t>Taylor Klugh</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>West Carteret</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>23:49.95</t>
+          <t>25:07.00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1429.95</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="26">
@@ -5862,31 +8810,27 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Lucy Sherill</t>
+          <t>Athena Wyss</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>D.H. Conley</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>23:57.90</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+          <t>25:08.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>1437.9</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="27">
@@ -5898,31 +8842,27 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Chloe Lewis</t>
+          <t>Jayla Brothers</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>White Oak</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>24:04.06</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>25:10.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>1444.06</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="28">
@@ -5934,7 +8874,7 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Kennedy Turrentine</t>
+          <t>Megan White</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5944,21 +8884,21 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Rocky Mount High School</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>24:08.59</t>
+          <t>25:34.00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1448.59</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="29">
@@ -5970,27 +8910,31 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Jade Lanclos</t>
+          <t>Maya Assmann</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Living Water Christian School</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>24:11.50</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>26:13.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
       <c r="H29" t="n">
-        <v>1451.5</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="30">
@@ -6002,7 +8946,7 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cailyn Thomas</t>
+          <t>Olivia Nehus</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -6012,17 +8956,21 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Living Water Christian School</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>24:21.13</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>26:45.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="H30" t="n">
-        <v>1461.13</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="31">
@@ -6034,7 +8982,7 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Stevie Cressionie</t>
+          <t>Sutton Norris</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -6044,17 +8992,21 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Wilson Christian Academy</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>24:32.14</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>26:47.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
       <c r="H31" t="n">
-        <v>1472.14</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="32">
@@ -6066,7 +9018,7 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Isabel Howard</t>
+          <t>Azul Garcia</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6076,21 +9028,21 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>West Carteret</t>
+          <t>New Bern</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>24:36.80</t>
+          <t>26:56.00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1476.8</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="33">
@@ -6102,31 +9054,31 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Jessica Pichardo-Madrid</t>
+          <t>Carley O'Brien</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pamlico County</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>24:51.01</t>
+          <t>26:59.00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1491.01</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="34">
@@ -6138,7 +9090,7 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Keysha Mizzell</t>
+          <t>Carlyn Barnes</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6148,21 +9100,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Rocky Mount High School</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>24:51.88</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
+          <t>27:04.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>1491.88</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="35">
@@ -6174,7 +9122,7 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Chloe Dean</t>
+          <t>Carolina Thompson</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6189,12 +9137,16 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>24:54.21</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>27:32.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
       <c r="H35" t="n">
-        <v>1494.21</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="36">
@@ -6206,31 +9158,31 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sophia Gough</t>
+          <t>Lilith Tuckmayer</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Heide Trask</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>25:11.71</t>
+          <t>27:41.00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1511.71</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="37">
@@ -6242,27 +9194,27 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Brooke Wilson</t>
+          <t>Haley Angel</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>East Carteret</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>25:14.98</t>
+          <t>28:51.00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>1514.98</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="38">
@@ -6274,12 +9226,12 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ava Spreder</t>
+          <t>Avagail Smith</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -6289,16 +9241,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>25:16.40</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
+          <t>29:14.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>1516.4</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="39">
@@ -6310,27 +9258,27 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Arize Martin</t>
+          <t>Riley Williamson</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>25:17.08</t>
+          <t>29:22.00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>1517.08</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="40">
@@ -6342,27 +9290,31 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Penelope Lewis</t>
+          <t>Evelyn Scott</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Havelock</t>
+          <t>New Bern</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>25:21.71</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>29:27.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="H40" t="n">
-        <v>1521.71</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="41">
@@ -6374,31 +9326,27 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Joanna Gwinn</t>
+          <t>Harmony Hilliard</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Lejeune</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>25:22.06</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
+          <t>29:31.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>1522.06</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="42">
@@ -6410,31 +9358,27 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Adilene Cruz Lopez</t>
+          <t>Presley Ware</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Heide Trask</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>25:23.20</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
+          <t>29:48.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>1523.2</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="43">
@@ -6446,31 +9390,27 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Valeria Ramos Gutierrez</t>
+          <t>Alyssa Taylor</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>South Lenoir</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>25:28.56</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
+          <t>30:13.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>1528.56</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="44">
@@ -6482,31 +9422,27 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ana Cruz</t>
+          <t>Allison Kim</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Heide Trask</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>25:29.37</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>30:39.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>1529.37</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="45">
@@ -6518,31 +9454,27 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Elena McCormick</t>
+          <t>Isabella Serrano</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>White Oak</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>25:33.72</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+          <t>30:40.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>1533.72</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="46">
@@ -6554,7 +9486,7 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Jada Lanclos</t>
+          <t>Lucy Myers</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -6564,17 +9496,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Living Water Christian School</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>25:35.49</t>
+          <t>30:46.00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>1535.49</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="47">
@@ -6586,31 +9518,27 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Emma-Kay Willis</t>
+          <t>Penelope Speight</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Lejeune</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>25:36.92</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
+          <t>30:57.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>1536.92</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="48">
@@ -6622,31 +9550,27 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Julia Dyga</t>
+          <t>Alexia Henderson</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>D.H. Conley</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>25:37.28</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
+          <t>32:26.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>1537.28</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="49">
@@ -6658,23 +9582,27 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Victoria  Salas</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>M Haven</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Unattached</t>
+          <t>Rose, J.H.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>25:40.60</t>
+          <t>32:51.00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>1540.6</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="50">
@@ -6686,31 +9614,31 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Alaina Vee</t>
+          <t>Kayla Green</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Swansboro</t>
+          <t>New Bern</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>25:45.40</t>
+          <t>33:00.00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1545.4</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="51">
@@ -6722,31 +9650,27 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ruby  Rohrman</t>
+          <t>Zedya  Mitchell</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Pamlico County</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>25:47.51</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+          <t>33:24.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>1547.51</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="52">
@@ -6758,7 +9682,7 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Emma Spinner</t>
+          <t>Kaylyn Wetherington</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -6768,17 +9692,21 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Terra Ceia Christian School</t>
+          <t>New Bern</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>25:52.22</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>37:36.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
       <c r="H52" t="n">
-        <v>1552.22</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="53">
@@ -6790,7 +9718,7 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Evelyn Garcia</t>
+          <t>Delaney Decent</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -6800,21 +9728,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>South Lenoir</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>25:54.53</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
+          <t>39:01.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>1554.53</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="54">
@@ -6826,7 +9750,7 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Madelyn Barnes</t>
+          <t>Mariah Wright</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -6836,17 +9760,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Havelock</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>25:57.89</t>
+          <t>40:55.00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>1557.89</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="55">
@@ -6858,27 +9782,27 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Lily Dettle</t>
+          <t>Juliana Pittman</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Croatan</t>
+          <t>D.H. Conley</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>25:58.21</t>
+          <t>40:56.00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>1558.21</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="56">
@@ -6890,7 +9814,7 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Kylie Petty</t>
+          <t>Maggie Harding</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -6900,1069 +9824,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Wilson Christian Academy</t>
+          <t>White Oak</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>26:00.19</t>
+          <t>43:36.00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>1560.19</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Leslie Cruz Lopez</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Heide Trask</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>26:07.65</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>1567.65</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Addison Gercon</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>West Carteret</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>26:13.29</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>1573.29</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Marleigh Patton</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>West Carteret</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>26:19.72</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="n">
-        <v>1579.72</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Alexa Haro</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>South Lenoir</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>26:21.15</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>1581.15</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Isabelle Hare</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Onslow Early College High School</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>26:51.22</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="n">
-        <v>1611.22</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Jane Gwinn</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Lejeune</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>26:57.14</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>1617.14</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Alivia Brown</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Richlands</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>26:57.98</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="n">
-        <v>1617.98</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Esther Hagedorn</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Onslow Early College High School</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>27:05.87</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="n">
-        <v>1625.87</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Sage Jones</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>South Lenoir</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>27:16.91</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>1636.91</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Sutton Norris</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>D.H. Conley</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>27:26.77</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>1646.77</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Emma Smith</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Pamlico County</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>27:30.17</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>1650.17</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Coralene Ellis</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Pamlico County</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>27:31.68</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>1651.68</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Carley O'Brien</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>D.H. Conley</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>27:36.61</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>1656.61</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Tania Ordaz Martinez</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Heide Trask</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>27:57.66</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>1677.66</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Sanai Silver</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Rocky Mount High School</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>28:24.27</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>1704.27</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Charlie Kate Barnett</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Wilson Christian Academy</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>28:38.73</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="n">
-        <v>1718.73</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Aubrey Bell</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>West Carteret</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>29:00.91</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="n">
-        <v>1740.91</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Lizeth Cruz Martinez</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Heide Trask</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>29:12.82</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>1752.82</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Elizabeth Weibling</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Lejeune</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>29:13.82</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>1753.82</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Valerie Valdivia</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>South Lenoir</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>29:20.06</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>1760.06</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Louise Medeiros</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Heide Trask</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>30:02.66</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>1802.66</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Kaitlyn Mizelle</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Pamlico County</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>30:03.91</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>1803.91</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Kamaya Hand</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Rocky Mount High School</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>30:16.51</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>1816.51</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Avery Ross</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Richlands</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>30:20.02</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="n">
-        <v>1820.02</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Haley Angel</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>D.H. Conley</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>30:22.44</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>1822.44</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Kadence Thigpen</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>South Lenoir</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>30:25.90</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>1825.9</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Annie Delamar</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Pamlico County</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>30:47.19</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>1847.19</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Aspyn Nunley</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Pamlico County</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>32:59.52</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>1979.52</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Nylah Roberts</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Rocky Mount High School</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>35:31.57</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>2131.57</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Kara Harper</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>South Lenoir</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>37:00.29</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>2220.29</v>
+        <v>2616</v>
       </c>
     </row>
   </sheetData>

--- a/resources/meetResultsGirls2025.xlsx
+++ b/resources/meetResultsGirls2025.xlsx
@@ -13,6 +13,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fightertown-xc-invitationalGirlsJV" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fightertown-xc-invitationalGirlsVarsity" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bcc-round-up-new-bern-all-teamsGirlsVarsity" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bo-runGirlsFreshmen" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bo-runGirlsVarsity" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bcc-round-up-boyd-lee-all-teamsGirlsVarsity" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wodhcsciopGirlsVarsity" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,6 +622,1227 @@
         <is>
           <t>18:35.00</t>
         </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bo-runGirlsFreshmen</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>bo-run</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Freshmen</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>18:24.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>bo-runGirlsVarsity</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>bo-run</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Varsity</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>18:24.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>bcc-round-up-boyd-lee-all-teamsGirlsVarsity</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>bcc-round-up-boyd-lee-all-teams</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Varsity</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>18:24.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>wodhcsciopGirlsVarsity</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>wodhcsciop</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Girls</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Varsity</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>17:44.54</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Athlete</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Isabel Maxwell</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>22:49.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Maddy Chung</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>23:32.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Juilanne Stanfield</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>23:32.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Hannah Allison</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>23:39.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Samantha Andreu</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>24:15.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Lucy Sherill</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>24:28.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Jacky Esquivel</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>24:54.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Paityn Revoir</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>25:31.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Madelynn Steele</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>26:04.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Elena McCormick</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>26:15.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Savannah Bryan</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>27:19.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Jayla Brothers</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>South Central</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>27:26.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Athena Wyss</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>27:57.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Julia Dyga</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>28:01.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sutton Norris</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>28:42.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Carlyn Barnes</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>29:53.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Riley Williamson</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>29:59.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Carley O'Brien</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>30:14.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Alexia Henderson</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>South Central</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>33:28.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Avagail Smith</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>33:37.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Aiden Tuttle</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>33:45.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Haley Angel</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>33:58.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ellie Elks</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Infant of Prague</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>35:40.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Raya Hurwitz</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>South Central</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>37:39.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Alyssa Taylor</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>38:09.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mariah Wright</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>39:45.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Gigi Manzini</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>42:05.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Zedya  Mitchell</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>South Central</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>42:08.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Delaney Decent</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>45:53.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Julianna Pittman</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>47:30.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Lilley Hardison</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>51:27.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>3087</v>
       </c>
     </row>
   </sheetData>
@@ -7951,7 +9176,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>Ella Barrow</t>
@@ -7987,7 +9211,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>Mary M Henslee</t>
@@ -8023,7 +9246,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>Isabel Maxwell</t>
@@ -8059,7 +9281,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>Samantha Andreu</t>
@@ -8095,7 +9316,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>Maddy Chung</t>
@@ -8131,7 +9351,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>Maria Wright</t>
@@ -8167,7 +9386,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>Annabella Drake</t>
@@ -8203,7 +9421,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>Julianne Stenfield</t>
@@ -8239,7 +9456,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>Madelynn Steele</t>
@@ -8275,7 +9491,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>Chloe Lewis</t>
@@ -8311,7 +9526,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>Lucy Sherill</t>
@@ -8347,7 +9561,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>Hannah Allison</t>
@@ -8383,7 +9596,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>Emma Radcliffe</t>
@@ -8419,7 +9631,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>Ava Spreder</t>
@@ -8455,7 +9666,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>Jacky Esquivel</t>
@@ -8491,7 +9701,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>Brianne Sanchez</t>
@@ -8527,7 +9736,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>Arize Martin</t>
@@ -8563,7 +9771,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>Julia Dyga</t>
@@ -8599,7 +9806,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>Chloe Dean</t>
@@ -8635,7 +9841,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>Elena McCormick</t>
@@ -8656,7 +9861,6 @@
           <t>24:12.00</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
         <v>1452</v>
       </c>
@@ -8667,7 +9871,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>Esah Innerarity</t>
@@ -8703,7 +9906,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>Ema Garcia</t>
@@ -8739,7 +9941,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>Savannah Bryan</t>
@@ -8760,7 +9961,6 @@
           <t>24:58.00</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
         <v>1498</v>
       </c>
@@ -8771,7 +9971,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>Taylor Klugh</t>
@@ -8807,7 +10006,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>Athena Wyss</t>
@@ -8828,7 +10026,6 @@
           <t>25:08.00</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
         <v>1508</v>
       </c>
@@ -8839,7 +10036,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>Jayla Brothers</t>
@@ -8860,7 +10056,6 @@
           <t>25:10.00</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
         <v>1510</v>
       </c>
@@ -8871,7 +10066,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>Megan White</t>
@@ -8907,7 +10101,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>Maya Assmann</t>
@@ -8943,7 +10136,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>Olivia Nehus</t>
@@ -8979,7 +10171,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>Sutton Norris</t>
@@ -9015,7 +10206,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>Azul Garcia</t>
@@ -9051,7 +10241,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>Carley O'Brien</t>
@@ -9087,7 +10276,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>Carlyn Barnes</t>
@@ -9108,7 +10296,6 @@
           <t>27:04.00</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
         <v>1624</v>
       </c>
@@ -9119,7 +10306,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>Carolina Thompson</t>
@@ -9155,7 +10341,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>Lilith Tuckmayer</t>
@@ -9191,7 +10376,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>Haley Angel</t>
@@ -9212,7 +10396,6 @@
           <t>28:51.00</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
         <v>1731</v>
       </c>
@@ -9223,7 +10406,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>Avagail Smith</t>
@@ -9244,7 +10426,6 @@
           <t>29:14.00</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
         <v>1754</v>
       </c>
@@ -9255,7 +10436,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>Riley Williamson</t>
@@ -9276,7 +10456,6 @@
           <t>29:22.00</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
         <v>1762</v>
       </c>
@@ -9287,7 +10466,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>Evelyn Scott</t>
@@ -9323,7 +10501,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>Harmony Hilliard</t>
@@ -9344,7 +10521,6 @@
           <t>29:31.00</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
         <v>1771</v>
       </c>
@@ -9355,7 +10531,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>Presley Ware</t>
@@ -9376,7 +10551,6 @@
           <t>29:48.00</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
         <v>1788</v>
       </c>
@@ -9387,7 +10561,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>Alyssa Taylor</t>
@@ -9408,7 +10581,6 @@
           <t>30:13.00</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
         <v>1813</v>
       </c>
@@ -9419,7 +10591,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>Allison Kim</t>
@@ -9440,7 +10611,6 @@
           <t>30:39.00</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
         <v>1839</v>
       </c>
@@ -9451,7 +10621,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>Isabella Serrano</t>
@@ -9472,7 +10641,6 @@
           <t>30:40.00</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
         <v>1840</v>
       </c>
@@ -9483,7 +10651,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>Lucy Myers</t>
@@ -9504,7 +10671,6 @@
           <t>30:46.00</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
         <v>1846</v>
       </c>
@@ -9515,7 +10681,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>Penelope Speight</t>
@@ -9536,7 +10701,6 @@
           <t>30:57.00</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
         <v>1857</v>
       </c>
@@ -9547,7 +10711,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>Alexia Henderson</t>
@@ -9568,7 +10731,6 @@
           <t>32:26.00</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
         <v>1946</v>
       </c>
@@ -9579,7 +10741,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>M Haven</t>
@@ -9600,7 +10761,6 @@
           <t>32:51.00</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
         <v>1971</v>
       </c>
@@ -9611,7 +10771,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>Kayla Green</t>
@@ -9647,7 +10806,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>Zedya  Mitchell</t>
@@ -9668,7 +10826,6 @@
           <t>33:24.00</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
         <v>2004</v>
       </c>
@@ -9679,7 +10836,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>Kaylyn Wetherington</t>
@@ -9715,7 +10871,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>Delaney Decent</t>
@@ -9736,7 +10891,6 @@
           <t>39:01.00</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
         <v>2341</v>
       </c>
@@ -9747,7 +10901,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>Mariah Wright</t>
@@ -9768,7 +10921,6 @@
           <t>40:55.00</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
         <v>2455</v>
       </c>
@@ -9779,7 +10931,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>Juliana Pittman</t>
@@ -9800,7 +10951,6 @@
           <t>40:56.00</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
         <v>2456</v>
       </c>
@@ -9811,7 +10961,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>Maggie Harding</t>
@@ -9832,9 +10981,7816 @@
           <t>43:36.00</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
         <v>2616</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Athlete</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Isla Weimann</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Riptides</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13:29.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>809.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Aleah Russell</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Hope Middle School</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13:49.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>829.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ava Muskus</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>E. B. Frink Middle School</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>14:25.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>865.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Anna Autry</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Hope Middle School</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>14:35.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>875.4299999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Brooke Valentine</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Southside Christian School</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>14:47.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sophie Liang</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hope Middle School</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>14:59.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>899.35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mackenzie Carey</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Riptides</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>15:01.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>901.54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ellory Higginson</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>AG Cox Middle School</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>15:27.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>927.0700000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Avery Phillips</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Hope Middle School</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>15:27.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>927.71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Reagan Moore</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Hope Middle School</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>15:29.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>929.9299999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Taylor Williams</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>AG Cox Middle School</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>15:32.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>932.17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Beatrice Brink</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Southside Christian School</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>15:46.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>946.58</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Annabelle Leonard</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Hope Middle School</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>16:04.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>964.97</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Arietta Cammarata</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>AG Cox Middle School</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>16:08.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>968.16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Vibha Anand</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Hope Middle School</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>16:09.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>969.97</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Caroline McLawhorn</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>The Oakwood School</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>16:36.50</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>996.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Scarlett Sadler</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Riptides</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>16:42.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1002.69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Eva Kate Stilton</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Hope Middle School</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>16:56.07</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1016.07</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Siena Torrent</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>AG Cox Middle School</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>17:07.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1027.77</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Penninger Erin</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Hope Middle School</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>17:11.75</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1031.75</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Lyla Rhea</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Hope Middle School</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>17:15.29</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1035.29</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ava Grimone</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Hope Middle School</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>17:17.47</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1037.47</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>April Payton</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>AG Cox Middle School</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>17:24.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1044.02</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Fiorella Mercado Ramos</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Hope Middle School</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>17:37.92</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1057.92</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Pranavi Guruprasad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Hope Middle School</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>17:43.10</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1063.1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Olivia Graver</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Southside Christian School</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>17:43.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1063.95</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Charlotte Sloan</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Southside Christian School</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>17:55.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1075.55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Zoe Smith</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>AG Cox Middle School</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>17:55.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1075.78</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Paula Dyga</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Hope Middle School</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>18:01.36</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1081.36</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Karsyn Bunting</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Hope Middle School</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>18:02.51</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1082.51</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Emery Creech</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>AG Cox Middle School</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>18:17.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1097.77</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Casey Gliniak</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>AG Cox Middle School</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>18:21.70</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1101.7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Lundn Washington</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>E. B. Frink Middle School</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>19:22.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1162.24</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Morgan Blaebaum</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Riptides</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>19:35.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Abigail Bullock</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Southside Christian School</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>19:39.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1179.74</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Brystol White</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Riptides</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>19:55.36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1195.36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Sarah Zwart</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>The Oakwood School</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>19:55.90</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1195.9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Natalie Ibarra</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>AG Cox Middle School</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>20:25.21</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1225.21</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Isabella Garro</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>AG Cox Middle School</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>20:54.35</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1254.35</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Carrera Patterson</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>The Oakwood School</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>20:58.03</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1258.03</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Londyn Luczaj</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>E. B. Frink Middle School</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>21:59.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1319.27</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Zola Joyner</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>AG Cox Middle School</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>22:08.53</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1328.53</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Harper Swarts</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>AG Cox Middle School</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>22:12.15</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1332.15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Tahlia Sutton</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>E. B. Frink Middle School</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>22:18.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1338.36</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Kamiyah Pigford</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>E. B. Frink Middle School</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>22:21.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1341.12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Y'Nira Edwards</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>E. B. Frink Middle School</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>22:28.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1348.97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Kaylee Gliniak</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>AG Cox Middle School</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>22:31.18</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1351.18</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Mary Regan Yarbrough</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Southside Christian School</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>23:24.27</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1404.27</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Madison Raspberry</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>E. B. Frink Middle School</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>32:44.90</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1964.9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ashley Paige</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>E. B. Frink Middle School</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>36:54.00</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H146"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Athlete</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Sarah Fedyna</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Havelock</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>19:46.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1186.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ella Barrow</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Rose, J.H.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>19:53.30</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1193.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Lucy Koch</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Cleveland High School</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>20:00.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1200.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Marlena Marson</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>20:21.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1221.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Stella Dady</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Millbrook</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20:38.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1238.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Reagan Norman</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cleveland High School</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>20:52.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1252.74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Gabriella Baker</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cape Hatteras</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20:53.06</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1253.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ember Lindley</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>West Johnston</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>21:00.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1260.37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Stella Cox</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Millbrook</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>21:01.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1261.89</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Elise Rose</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>21:04.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1264.08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Caroline Campbell</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Millbrook</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>21:13.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1273.18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Samantha Andreu</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>21:13.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1273.23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Blake Leigh Brickhouse</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>21:23.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1283.69</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Katie Aldridge</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Millbrook</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>21:24.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1284.81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Kyleen Vanscoy</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Millbrook</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>21:56.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1316.48</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Morgan Bowcock</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>West Johnston</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>22:14.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1334.86</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Marina Lewis</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Havelock</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>22:20.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1340.79</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Julianne Stanfield</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>22:23.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1343.75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Lucy Sherill</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>22:34.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1354.99</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Clara Martinson</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Millbrook</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>22:36.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1356.83</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Brooklynn Munoz</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Rolesville High School</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>22:46.03</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1366.03</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Leah Windsor</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>22:52.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1372.82</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Kala Corbett</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Millbrook</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>23:00.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1380.55</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Wiktoria Szulc</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Millbrook</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>23:05.79</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1385.79</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Charlotte Duranske</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Millbrook</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>23:07.98</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1387.98</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Kyla Drenzek</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Millbrook</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>23:25.74</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1405.74</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Gillam Parker</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>23:27.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1407.97</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Avery Leonard</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Millbrook</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>23:36.16</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1416.16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Natalya Ramos</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>West Johnston</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>23:39.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1419.51</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Emrie Scott</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Northside (1A)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>23:49.82</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1429.82</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Alexa Haro</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>23:50.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1430.75</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Lupita Palacios</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Cape Hatteras</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>23:52.12</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1432.12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Bella-Michele Horton</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Rolesville High School</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>23:57.88</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1437.88</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Katherine Rowland</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>West Johnston</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>23:59.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1439.45</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Bridget Quinn</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Millbrook</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>24:00.88</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1440.88</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Kaelyn Bacon</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Cleveland High School</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>24:02.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1442.37</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Valeria Ramos Gutierrez</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>24:05.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1445.65</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Mackenzie Thompson</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Cleveland High School</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>24:07.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1447.88</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Eloise Martinson</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Millbrook</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>24:09.85</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1449.85</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Quinn Brown</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>West Johnston</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>24:10.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1450.74</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Evelyn Garcia</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>24:11.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1451.93</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Naomi Decker</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Apex</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>24:17.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1457.75</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Madelynn Steele</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>24:18.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1458.74</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sophia Gough</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>24:20.09</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1460.09</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Autumn Oakes</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Cleveland High School</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>24:20.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1460.46</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Peyton Steele</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Havelock</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>24:20.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1460.91</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Rebekah Ceislak</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Eastern NC Homeschool (HS)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>24:25.64</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1465.64</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Eliza Weiner</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Millbrook</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>24:31.76</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1471.76</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Eva Demarchi</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Millbrook</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>24:34.33</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1474.33</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Adilene Cruz Lopez</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>24:38.83</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1478.83</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Amelia Thaxton</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>The Oakwood School</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>24:42.51</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1482.51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Anjali Patel</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Apex</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>24:44.24</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1484.24</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Sarah Hanford</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Rolesville High School</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>24:51.68</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1491.68</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Taylor Horne</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Rolesville High School</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>24:51.78</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1491.78</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Karina Martinez-Balderas</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>West Johnston</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>24:55.05</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1495.05</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Malak Makhlof</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Apex</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>24:56.17</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1496.17</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Evelyn Peck</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Wakefield</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>24:57.92</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1497.92</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Molly Jayne</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>24:59.59</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1499.59</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ana Cruz</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>25:03.31</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1503.31</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Penelope Lewis</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Havelock</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>25:08.42</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1508.42</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Nayeli Ramirez</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>25:10.80</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1510.8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Grace Wheeler</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>25:16.31</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1516.31</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Laya Nathan</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Apex</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>25:17.20</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1517.2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Jessica Pichardo-Madrid</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>25:17.25</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1517.25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Stephanie Jancso</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Cleveland High School</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>25:20.36</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1520.36</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Julia Dyga</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>25:27.12</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1527.12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Danielle Magnani</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Apex</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>25:31.85</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1531.85</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Olivia Mederos</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Cleveland High School</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>25:33.57</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1533.57</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Ivy Horne</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>25:43.74</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1543.74</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Ema Garcia</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Rose, J.H.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>25:45.37</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1545.37</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Zarhia O'nan</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Havelock</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>26:01.70</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1561.7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Fallon Ryan</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>West Johnston</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>26:04.26</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1564.26</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Leslie Cruz Lopez</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>26:05.13</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1565.13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Claire Hawhee</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Apex</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>26:14.02</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1574.02</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Trinity Modlin</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Northside (1A)</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>26:14.16</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1574.16</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ayla Grappé</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Cleveland High School</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>26:19.86</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1579.86</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Lizeth Cruz Martinez</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>26:23.12</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1583.12</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Eve Smith</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Havelock</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>26:28.02</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1588.02</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Makenna Mayo</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>26:33.62</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1593.62</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Sophia Rodts</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Millbrook</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>26:34.72</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1594.72</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Sara Wenger</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Wakefield</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>26:50.46</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1610.46</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Kathryn Bauman</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>26:52.49</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1612.49</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Sutton Norris</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>26:53.58</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1613.58</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Charlotte Wise</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Millbrook</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>27:01.87</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1621.87</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Louise Medeiros</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>27:17.91</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1637.91</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Lana Harrell</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>The Oakwood School</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>27:27.60</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1647.6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Marlene Reyes</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>27:37.06</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1657.06</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Adriana Hernandez</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>27:40.97</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1660.97</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Aubrey Baker</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Apex</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>27:50.33</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1670.33</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Skyler Day</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>27:50.78</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1670.78</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Hailey Jenkins</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Havelock</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>27:55.20</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1675.2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Paula Diaz Campo</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>West Johnston</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>27:57.64</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1677.64</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Samantha Taylor</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>West Johnston</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>28:06.84</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1686.84</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Catherine Paschal</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>28:08.73</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1688.73</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Ruby  Rohrman</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>28:12.37</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1692.37</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Valerie Valdivia</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>28:17.77</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1697.77</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Tania Ordaz Martinez</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>28:24.66</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1704.66</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Aimsley Stephens</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>West Johnston</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>28:26.18</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1706.18</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Carley O'Brien</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>28:29.58</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1709.58</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Addison Nowell</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>28:37.68</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1717.68</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Katherine  Alvarenga</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>28:40.39</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1720.39</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Meredith Sutherland</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>West Johnston</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>28:44.66</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1724.66</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Isabella Allman</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Cleveland High School</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>28:48.88</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1728.88</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Kadence Thigpen</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>South Lenoir</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>29:01.11</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1741.11</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Martha Vielhaben</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>West Johnston</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>29:08.27</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1748.27</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Emma Smith</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>29:08.44</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1748.44</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Corabeth Asby</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Northside (1A)</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>29:09.53</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1749.53</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Haley Angel</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>29:14.58</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1754.58</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Delaney Gatewood</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Cleveland High School</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>29:15.32</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1755.32</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Aubrey Bell</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>29:19.54</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1759.54</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Essie O'Neal</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Ocracoke High School</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>29:20.03</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1760.03</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Coralene Ellis</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>29:23.84</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1763.84</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Cecelia Kelley</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>29:28.40</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1768.4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Bailey Hildebrandt</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>29:50.87</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1790.87</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Viviana Reyes</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>29:53.88</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1793.88</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Stephanie Flores</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Ocracoke High School</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>29:55.72</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1795.72</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Mary M Henslee</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Rose, J.H.</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>30:08.24</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1808.24</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Danett Alonzo Lopez</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>30:28.95</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1828.95</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Brinley Altman</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>30:46.02</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1846.02</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Jessica Resendiz Ramirez</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>30:57.94</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1857.94</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Skylar Thomas</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Cleveland High School</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>30:59.06</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1859.06</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Ella Kate Steel</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Eastern NC Homeschool (HS)</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>31:12.11</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1872.11</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Lily Steel</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Eastern NC Homeschool (HS)</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>31:15.46</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1875.46</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Denisse Rubio</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Ocracoke High School</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>31:31.10</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1891.1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Kaitlyn Mizelle</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>31:39.25</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1899.25</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Aspyn Nunley</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>31:44.81</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1904.81</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Alexia Henderson</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>South Central</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>32:03.85</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1923.85</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Elizabeth Peluso</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Eastern NC Homeschool (HS)</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>32:07.76</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1927.76</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Shelby Dixon</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>32:11.14</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1931.14</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Annie Delamar</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>32:17.39</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1937.39</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Peyton Felix</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>32:18.33</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1938.33</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Jocelyn Meza</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>32:20.82</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1940.82</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Roselyn Reyes</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>32:25.50</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1945.5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Penelope Collins</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>West Carteret</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>32:44.69</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1964.69</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Lucille Pearce</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Millbrook</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>33:00.62</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1980.62</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Cristela Botello</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>33:29.35</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2009.35</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Kylee Rodriguez</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Pamlico County</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>34:05.87</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2045.87</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Maygen Tucker Ipock</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Northside (1A)</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>34:12.80</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2052.8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Yareli Rios Aragon</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>34:39.41</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2079.41</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Eden Lindley</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>West Johnston</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>34:55.32</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2095.32</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Gissel Escalante Perez</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>35:01.77</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2101.77</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Olivia Moore</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>36:45.44</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2205.44</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Olivia Nehus</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Rose, J.H.</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>36:48.09</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>2208.09</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Aaliyah White</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>37:16.05</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2236.05</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Skylerr Houle</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Heide Trask</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>37:23.43</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2243.43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Athlete</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ella Barrow</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Rose, J.H.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>19:37.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Samantha Andreu</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20:32.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Isabel Maxwell</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>20:55.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Maddy Chung</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>22:01.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Annabella Drake</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>22:13.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Juilanne Stanfield</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>22:15.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Lucy Sherill</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>22:18.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Hannah Allison</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>22:59.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Paityn Revoir</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>23:29.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Esah Innerarity</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>New Bern</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>23:33.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Emma Radcliffe</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>23:43.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Jacky Esquivel</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>23:51.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Chloe Dean</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>23:55.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Madelynn Steele</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>23:58.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Arize Martin</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>24:19.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ava Spreader</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>24:22.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elena McCormick</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>White Oak</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>24:26.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Destiny Hill</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>24:51.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Azul Garcia</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>New Bern</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>25:13.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Julia Dyga</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>25:15.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Maya Assmann</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>25:23.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Jayla Brothers</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>South Central</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>26:04.00</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Emma Garcia</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Rose, J.H.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>26:26.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Sutton Norris</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>26:30.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Klugh Taylor</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Rose, J.H.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>26:34.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Olivia Nehus</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Rose, J.H.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>26:53.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Carley O'Brien</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>D.H. Conley</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>27:08.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Alexia Henderson</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>South Central</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>28:50.00</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Evelyn Scott</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>New Bern</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>29:04.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Carolina Thompson</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>29:37.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Kaylyn Wetherington</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>New Bern</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>30:08.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Penelope Speight</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Rose, J.H.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>30:30.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Isabella Serrano</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Rose, J.H.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>30:38.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Presley Ware</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Rose, J.H.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>30:51.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Raya Hurwitz</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>South Central</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>32:31.00</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Kayla Green</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>New Bern</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>36:33.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Zedya  Mitchell</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>South Central</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>38:08.00</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2288</v>
       </c>
     </row>
   </sheetData>
